--- a/excel/202309.xlsx
+++ b/excel/202309.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI83"/>
+  <dimension ref="A1:AI84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6925,12 +6925,12 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -6945,22 +6945,22 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -6980,34 +6980,34 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>1280</t>
+          <t>2120</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>賴冠達</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Ryan Lai</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -7022,27 +7022,27 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -7052,27 +7052,27 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -7087,27 +7087,27 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -7157,19 +7157,19 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>2940</t>
+          <t>560</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -7309,12 +7309,12 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -7334,19 +7334,19 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>2940</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -7486,12 +7486,12 @@
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
@@ -7511,19 +7511,19 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2380</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -7688,19 +7688,19 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7725,12 +7725,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -7872,12 +7872,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -8049,17 +8049,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -8219,19 +8219,19 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>2940</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -8396,19 +8396,19 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>2940</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8580,12 +8580,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -8695,12 +8695,12 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
@@ -8750,19 +8750,19 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>3080</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -8872,12 +8872,12 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -8897,17 +8897,17 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
@@ -8927,24 +8927,24 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>2940</t>
+          <t>1960</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8954,7 +8954,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8964,12 +8964,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -9024,7 +9024,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
@@ -9104,19 +9104,19 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>2940</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9126,7 +9126,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -9281,19 +9281,19 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2380</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -9393,22 +9393,22 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
@@ -9458,19 +9458,19 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>李沐潔</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Kayla Lee</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9500,22 +9500,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -9530,27 +9530,27 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -9565,22 +9565,22 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -9635,24 +9635,24 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>李沐潔</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Kayla Lee</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0AA6</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -9747,17 +9747,17 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -9777,22 +9777,22 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
@@ -9812,19 +9812,19 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>980</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>戴新華</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Dixie Tai</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9874,7 +9874,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
@@ -9996,17 +9996,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>傅子峰</t>
+          <t>戴新華</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gibson Fu</t>
+          <t>Dixie Tai</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0AA61</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -10166,24 +10166,24 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>鍾幸玲</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Shelly Chung</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0AA7</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
@@ -10350,17 +10350,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>鍾幸玲</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Shelly Chung</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0AA80</t>
+          <t>0AA7</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10450,12 +10450,12 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -10520,24 +10520,24 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>魏宏霖</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Henry Wei</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0AA81</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -10697,19 +10697,19 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>魏宏霖</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Henry Wei</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10881,17 +10881,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>賴韋任</t>
+          <t>黃式賢</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Leo Lai</t>
+          <t>Shiny Huang</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0AA82</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD60" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="AE60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF60" t="inlineStr">
@@ -11058,12 +11058,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>赤木心惠</t>
+          <t>賴韋任</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Akagi Shinei</t>
+          <t>Leo Lai</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD61" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="AE61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF61" t="inlineStr">
@@ -11235,22 +11235,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>赤木心惠</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Akagi Shinei</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0AA9</t>
+          <t>0AA82</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -11265,27 +11265,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -11300,27 +11300,27 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -11335,17 +11335,17 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
@@ -11405,34 +11405,34 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0AA940</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -11442,32 +11442,32 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -11482,47 +11482,47 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
@@ -11582,34 +11582,34 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1960</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0AA95</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -11619,32 +11619,32 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -11659,57 +11659,57 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -11724,17 +11724,17 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE64" t="inlineStr">
@@ -11759,19 +11759,19 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -11936,34 +11936,34 @@
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>蔡俊輝</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Alex Tsai</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0B</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -11973,27 +11973,27 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -12008,27 +12008,27 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -12043,27 +12043,27 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -12078,22 +12078,22 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
@@ -12113,19 +12113,19 @@
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>3400</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>川中郁果</t>
+          <t>蔡俊輝</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kawanaka Ikuka</t>
+          <t>Alex Tsai</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -12185,7 +12185,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="AE67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
@@ -12290,19 +12290,19 @@
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>楊筑珺</t>
+          <t>川中郁果</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Chynee Yang</t>
+          <t>Kawanaka Ikuka</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -12467,19 +12467,19 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>560</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>徐沛</t>
+          <t>楊筑珺</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fanny Hsu</t>
+          <t>Chynee Yang</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -12651,22 +12651,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>徐沛</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Fanny Hsu</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -12691,17 +12691,17 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -12716,17 +12716,17 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -12756,12 +12756,12 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
@@ -12786,17 +12786,17 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE70" t="inlineStr">
@@ -12821,19 +12821,19 @@
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -12858,12 +12858,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -12908,12 +12908,12 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -12943,12 +12943,12 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -12998,19 +12998,19 @@
       </c>
       <c r="AI71" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -13105,7 +13105,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -13175,19 +13175,19 @@
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2660</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -13359,12 +13359,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -13529,24 +13529,24 @@
       </c>
       <c r="AI74" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -13671,7 +13671,7 @@
       </c>
       <c r="AB75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC75" t="inlineStr">
@@ -13713,12 +13713,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
@@ -13890,12 +13890,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -14005,7 +14005,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -14067,17 +14067,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -14107,17 +14107,17 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -14167,17 +14167,17 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X78" t="inlineStr">
@@ -14202,22 +14202,22 @@
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AF78" t="inlineStr">
@@ -14237,24 +14237,24 @@
       </c>
       <c r="AI78" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>2660</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2AA8S</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -14284,17 +14284,17 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -14344,22 +14344,22 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -14379,22 +14379,22 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF79" t="inlineStr">
@@ -14414,19 +14414,19 @@
       </c>
       <c r="AI79" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>980</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>林華宸</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Wayne Lin</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -14451,7 +14451,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -14591,19 +14591,19 @@
       </c>
       <c r="AI80" t="inlineStr">
         <is>
-          <t>2800</t>
+          <t>2660</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -14768,19 +14768,19 @@
       </c>
       <c r="AI81" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>May Hu</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -14952,172 +14952,349 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>胡美燕</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>May Hu</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI83" t="inlineStr">
+        <is>
+          <t>2660</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>09</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>7,560</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1,960</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>4,620</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>7,000</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>6,860</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>7,980</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>7,560</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>1,400</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
         <is>
           <t>7,840</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>7,980</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>7,000</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>7,700</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>7,840</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>1,260</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr">
+      <c r="T84" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="U83" t="inlineStr">
+      <c r="U84" t="inlineStr">
         <is>
           <t>7,000</t>
         </is>
       </c>
-      <c r="V83" t="inlineStr">
+      <c r="V84" t="inlineStr">
         <is>
           <t>7,740</t>
         </is>
       </c>
-      <c r="W83" t="inlineStr">
+      <c r="W84" t="inlineStr">
         <is>
           <t>7,980</t>
         </is>
       </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>7,140</t>
-        </is>
-      </c>
-      <c r="Y83" t="inlineStr">
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>7,280</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>7,560</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>7,580</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>7,840</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
         <is>
           <t>7,420</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB83" t="inlineStr">
-        <is>
-          <t>7,300</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>7,560</t>
-        </is>
-      </c>
-      <c r="AD83" t="inlineStr">
-        <is>
-          <t>7,140</t>
-        </is>
-      </c>
-      <c r="AE83" t="inlineStr">
-        <is>
-          <t>8,680</t>
-        </is>
-      </c>
-      <c r="AF83" t="inlineStr">
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>8,960</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="AG83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI83" t="inlineStr">
-        <is>
-          <t>153,640</t>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI84" t="inlineStr">
+        <is>
+          <t>155,040</t>
         </is>
       </c>
     </row>
